--- a/Friobom/Engineering/data/excel_files/3809-322_06_F.xlsx
+++ b/Friobom/Engineering/data/excel_files/3809-322_06_F.xlsx
@@ -535,31 +535,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G2" t="n">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="H2" t="n">
-        <v>9668.059999999999</v>
+        <v>10065.53</v>
       </c>
       <c r="I2" t="n">
         <v>10.82</v>
       </c>
       <c r="J2" t="n">
-        <v>268.5</v>
+        <v>279.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="N2" t="n">
-        <v>111.875</v>
+        <v>116.5</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -590,31 +590,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="n">
-        <v>2340</v>
+        <v>2353</v>
       </c>
       <c r="H3" t="n">
-        <v>7873.32</v>
+        <v>7918.82</v>
       </c>
       <c r="I3" t="n">
         <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>257.4</v>
+        <v>258.83</v>
       </c>
       <c r="K3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2340</v>
+        <v>2353</v>
       </c>
       <c r="N3" t="n">
-        <v>65</v>
+        <v>65.36111111111111</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -645,31 +645,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>2340</v>
+        <v>2353</v>
       </c>
       <c r="H4" t="n">
-        <v>7827.96</v>
+        <v>7873.46</v>
       </c>
       <c r="I4" t="n">
         <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>257.4</v>
+        <v>258.83</v>
       </c>
       <c r="K4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2340</v>
+        <v>2353</v>
       </c>
       <c r="N4" t="n">
-        <v>65</v>
+        <v>65.36111111111111</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="n">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="H6" t="n">
-        <v>6117.31</v>
+        <v>6276.76</v>
       </c>
       <c r="I6" t="n">
-        <v>10.9</v>
+        <v>10.89</v>
       </c>
       <c r="J6" t="n">
-        <v>168.9</v>
+        <v>173.4</v>
       </c>
       <c r="K6" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="N6" t="n">
-        <v>70.375</v>
+        <v>72.25</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G9" t="n">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="H9" t="n">
-        <v>3904.04</v>
+        <v>4290.56</v>
       </c>
       <c r="I9" t="n">
-        <v>10.91</v>
+        <v>10.9</v>
       </c>
       <c r="J9" t="n">
-        <v>89.5</v>
+        <v>98.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="N9" t="n">
-        <v>44.75</v>
+        <v>49.25</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
